--- a/Test case No.1-No.7.xlsx
+++ b/Test case No.1-No.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panidaonprasert/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panidaonprasert/Documents/QA-automation-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A950899-17EF-C84E-8381-525B68E2541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574A20D-C1DD-664A-9567-AFA8FA8F606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15900" activeTab="5" xr2:uid="{BE375C4E-19DD-A448-80C9-2DA114ADDC1B}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15900" xr2:uid="{BE375C4E-19DD-A448-80C9-2DA114ADDC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Exam No.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
   <si>
     <t>Test Cases No.</t>
   </si>
@@ -91,19 +91,6 @@
   </si>
   <si>
     <t>Step 1. get http status code 201</t>
-  </si>
-  <si>
-    <t>Verify GET:https://jsonplaceholder.typicode.com/todos 
-Content-Type is present</t>
-  </si>
-  <si>
-    <t>Verify content-type header</t>
-  </si>
-  <si>
-    <t>Step 2.Verify  header</t>
-  </si>
-  <si>
-    <t>Step 2. system have header content-type</t>
   </si>
   <si>
     <t>TC004</t>
@@ -932,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99FCB9-CBEF-3848-AF07-F5DF4EEC760E}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1018,54 +1005,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1124,16 +1086,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1141,24 +1103,24 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1169,30 +1131,30 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1251,16 +1213,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1268,27 +1230,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1296,27 +1258,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1374,24 +1336,24 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="231" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1399,24 +1361,24 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1424,74 +1386,74 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1548,16 +1510,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1565,24 +1527,24 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -1590,24 +1552,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13973CE-762D-5F4D-9E6D-3993D5C324CB}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1666,130 +1628,130 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="E4" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="E6" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="E7" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="E8" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="E9" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="E10" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
